--- a/medicine/Médecine vétérinaire/Camille_Guérin/Camille_Guérin.xlsx
+++ b/medicine/Médecine vétérinaire/Camille_Guérin/Camille_Guérin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camille_Gu%C3%A9rin</t>
+          <t>Camille_Guérin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille Guérin, né le 22 décembre 1872 à Poitiers et mort le 9 juin 1961 à Paris, est un vétérinaire et biologiste français. Avec le médecin Albert Calmette, il est l'inventeur du BCG, vaccin antituberculeux.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camille_Gu%C3%A9rin</t>
+          <t>Camille_Guérin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Poitiers, en 1872, Camille Guérin est le fils d'un entrepreneur de travaux publics, mort de la tuberculose en 1882. Il étudie la médecine vétérinaire de 1892 à 1896 à l'École nationale vétérinaire d'Alfort, tout en servant d'assistant au pathologiste Edmond Nocard (1850-1903)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Poitiers, en 1872, Camille Guérin est le fils d'un entrepreneur de travaux publics, mort de la tuberculose en 1882. Il étudie la médecine vétérinaire de 1892 à 1896 à l'École nationale vétérinaire d'Alfort, tout en servant d'assistant au pathologiste Edmond Nocard (1850-1903).
 Diplômé en 1896, il rejoint l'Institut Pasteur de Lille en 1897 et commence à travailler avec Albert Calmette. D'abord préparateur, il est chargé de préparer le sérum antivenin de serpent et le vaccin contre la variole. Il améliore grandement les techniques de production de ce dernier en utilisant des lapins porteurs, et il met au point une méthode pour évaluer la virulence latente du vaccin. 
 En 1900, il se consacre presque exclusivement aux deux sujets d'études qui occuperont la majeure partie de sa carrière scientifique  : la vaccine jennérienne et la tuberculose. En 1905, il est nommé chef de laboratoire. Il poursuit alors les travaux sur la prévention de la variole, menés un siècle plus tôt par Edward Jenner, médecin anglais.
 Il découvre d'abord, en 1905, que le bacille de la tuberculose bovine (Mycobacterium bovis) peut immuniser les animaux sans déclencher la maladie. Par la suite, il s'emploie avec Calmette à développer des stratégies de réduction de la virulence de Mycobacterium par des cultures successives. En 1908, après avoir obtenu une préparation immunologique active, Calmette et lui publient les résultats de leurs travaux sur ce qu'ils nomment le vaccin Bilié de Calmette et Guérin (BCG). En 1915, leurs recherches sont interrompues par l'occupation de Lille. Ils ne les reprennent qu'en 1918, après la libération. Finalement, en 1921, après 230 passages de culture du BCG, ils obtiennent un vaccin utilisable chez l'homme. En 1924, les pouvoirs publics autorisent l'extension de l'usage du BCG sur les nouveau-nés humains.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camille_Gu%C3%A9rin</t>
+          <t>Camille_Guérin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,16 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Divers établissements publics portent le nom Camille Guérin, dont notamment :
 un bâtiment de l'École nationale vétérinaire d'Alfort ;
-un lycée de Poitiers[2] (lycée Camille-Guérin) doté de classes préparatoires aux grandes écoles littéraires et scientifiques, ainsi que d'un parcours préparatoire au professorat des écoles (3PE ou PPPE, depuis septembre 2022) ;
-plusieurs collèges : à Saint-Méen-le-Grand, Poitiers, Vouneuil-sur-Vienne[3] ;
-le centre hospitalier de Châtellerault[4] ;
-une résidence universitaire à Limoges[5].
+un lycée de Poitiers (lycée Camille-Guérin) doté de classes préparatoires aux grandes écoles littéraires et scientifiques, ainsi que d'un parcours préparatoire au professorat des écoles (3PE ou PPPE, depuis septembre 2022) ;
+plusieurs collèges : à Saint-Méen-le-Grand, Poitiers, Vouneuil-sur-Vienne ;
+le centre hospitalier de Châtellerault ;
+une résidence universitaire à Limoges.
 De nombreuses communes françaises lui attribuent des noms de rues, notamment à Poitiers, Limoges, Nantes, Cholet, La Roche-sur-Yon, Château-d'Olonne, Lille, Caen, Beauvais, Bourges, Bétheny, Sailly-sur-la-Lys, Bressuire, Thouars et Pézenas.
 </t>
         </is>
